--- a/censoring_dates.xlsx
+++ b/censoring_dates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job\Projects\Luxembourg\hearing aids\HA-and-dementia-in-UKBB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F43824-2B33-484D-B737-B5C16F790B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E36F754-7ED5-4B84-B9BF-82950FE8CA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15075" yWindow="2760" windowWidth="18210" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="21">
   <si>
     <t>PEDW</t>
   </si>
@@ -39,9 +39,6 @@
     <t>dementia</t>
   </si>
   <si>
-    <t>30.09.2021</t>
-  </si>
-  <si>
     <t>disorder</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>asthma</t>
   </si>
   <si>
-    <t>30.09.2017</t>
-  </si>
-  <si>
     <t>infect</t>
   </si>
   <si>
@@ -75,7 +69,25 @@
     <t>hepatic</t>
   </si>
   <si>
-    <t>31.07.2021</t>
+    <t>31.10.2022</t>
+  </si>
+  <si>
+    <t>31.08.2022</t>
+  </si>
+  <si>
+    <t>31.05.2022</t>
+  </si>
+  <si>
+    <t>appendicitis</t>
+  </si>
+  <si>
+    <t>head_inj</t>
+  </si>
+  <si>
+    <t>hip_fract</t>
+  </si>
+  <si>
+    <t>tinnitus</t>
   </si>
 </sst>
 </file>
@@ -393,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,13 +419,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -424,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -435,7 +447,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -446,238 +458,370 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/censoring_dates.xlsx
+++ b/censoring_dates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Job\Projects\Luxembourg\hearing aids\HA-and-dementia-in-UKBB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E36F754-7ED5-4B84-B9BF-82950FE8CA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359D8FD2-A253-4162-8783-9E6814442172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15075" yWindow="2760" windowWidth="18210" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="18240" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="22">
   <si>
     <t>PEDW</t>
   </si>
@@ -84,10 +84,13 @@
     <t>head_inj</t>
   </si>
   <si>
+    <t>tinnitus</t>
+  </si>
+  <si>
+    <t>trans_acc</t>
+  </si>
+  <si>
     <t>hip_fract</t>
-  </si>
-  <si>
-    <t>tinnitus</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +763,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -771,7 +774,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -782,7 +785,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
@@ -793,7 +796,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -804,7 +807,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -815,12 +818,45 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>20</v>
       </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
         <v>16</v>
       </c>
     </row>
